--- a/biology/Botanique/Boletus_edulis_f._quercicola/Boletus_edulis_f._quercicola.xlsx
+++ b/biology/Botanique/Boletus_edulis_f._quercicola/Boletus_edulis_f._quercicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cèpe des chênes, Cèpe quercicole
 Boletus edulis f. quercicola ou Boletus quercicola, de son nom vernaculaire Cèpe des chênes ou Cèpe quercicole est une forme, autrefois considérée comme une espèce à part entière, de l'espèce de champignon Boletus edulis du genre Boletus dans la famille des Boletaceae. C'est une variété à cuticule beige foncé, stipe crème non réticulé et à la mycorhize spécifique aux chênes, de Boletus edulis, le Cèpe de Bordeaux.
@@ -514,10 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Boletus edulis f. quercicola Vassilkof (1966)
-Synonymes
-Boletus quercicola (Vassilkov) Singer (1978)</t>
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus edulis f. quercicola Vassilkof (1966)
+</t>
         </is>
       </c>
     </row>
@@ -542,10 +558,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus quercicola (Vassilkov) Singer (1978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boletus_edulis_f._quercicola</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_edulis_f._quercicola</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau: 10-15 cm, hémisphérique puis plan-convexe, 
 Cuticule: de couleur brun foncé, unicolore. 
@@ -556,37 +610,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Boletus_edulis_f._quercicola</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boletus_edulis_f._quercicola</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tendances montagnardes. Thermophile. Lié aux chênes (blancs). Europe, URSS.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -608,12 +631,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Saison</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin juillet à mi-octobre
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tendances montagnardes. Thermophile. Lié aux chênes (blancs). Europe, URSS.
 </t>
         </is>
       </c>
@@ -639,10 +664,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin juillet à mi-octobre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boletus_edulis_f._quercicola</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_edulis_f._quercicola</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant de facto un Cèpe de Bordeaux, sa comestibilité est la même ; excellente.
 </t>
